--- a/data/trans_orig/INDUSTRIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/INDUSTRIA-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industria contaminante en Andalucia</t>
+          <t>Industria contaminante en Andalucia (tasa de respuesta: 99,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/INDUSTRIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/INDUSTRIA-Estudios-trans_orig.xlsx
@@ -738,12 +738,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>197834</t>
+          <t>197836</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>213204</t>
+          <t>213749</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>87,59%</t>
+          <t>87,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>361639</t>
+          <t>362213</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>375873</t>
+          <t>375622</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>91,93%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>95,55%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>564772</t>
+          <t>564958</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>586293</t>
+          <t>585812</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>91,2%</t>
+          <t>91,23%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>94,6%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4340</t>
+          <t>4283</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14496</t>
+          <t>15162</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10850</t>
+          <t>11302</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22883</t>
+          <t>22536</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>18212</t>
+          <t>17314</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>34129</t>
+          <t>33620</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,43%</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5362</t>
+          <t>5723</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18312</t>
+          <t>18360</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4355</t>
+          <t>4147</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12731</t>
+          <t>12429</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>11598</t>
+          <t>11936</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>27494</t>
+          <t>27330</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,41%</t>
         </is>
       </c>
     </row>
@@ -1194,12 +1194,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1314216</t>
+          <t>1317613</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1371447</t>
+          <t>1371708</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1229,12 +1229,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1288563</t>
+          <t>1287341</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1339095</t>
+          <t>1339562</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1244,12 +1244,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>93,11%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2615179</t>
+          <t>2615001</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2692362</t>
+          <t>2694078</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>96,53%</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27994</t>
+          <t>27476</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>73405</t>
+          <t>71001</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1342,12 +1342,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29706</t>
+          <t>28635</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>67967</t>
+          <t>67401</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1377,12 +1377,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>71531</t>
+          <t>72399</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131469</t>
+          <t>131071</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1392,12 +1392,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,7%</t>
         </is>
       </c>
     </row>
@@ -1420,12 +1420,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6729</t>
+          <t>6642</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32881</t>
+          <t>33170</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11325</t>
+          <t>12063</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>33685</t>
+          <t>34422</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>23501</t>
+          <t>22423</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>55007</t>
+          <t>57654</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,07%</t>
         </is>
       </c>
     </row>
@@ -1650,12 +1650,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>419302</t>
+          <t>419355</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>441703</t>
+          <t>442207</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1665,12 +1665,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>91,38%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>408776</t>
+          <t>409769</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>426299</t>
+          <t>425387</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1700,12 +1700,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>838058</t>
+          <t>836866</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>863715</t>
+          <t>863976</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>96,09%</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10845</t>
+          <t>10905</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28521</t>
+          <t>28508</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10654</t>
+          <t>11129</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26340</t>
+          <t>25818</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1813,12 +1813,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>24870</t>
+          <t>24764</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>47537</t>
+          <t>47737</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,31%</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3187</t>
+          <t>3497</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18214</t>
+          <t>18696</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1593</t>
+          <t>1552</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>8262</t>
+          <t>8360</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1926,12 +1926,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1946,12 +1946,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>6833</t>
+          <t>6809</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>21929</t>
+          <t>21182</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,36%</t>
         </is>
       </c>
     </row>
@@ -2106,12 +2106,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1954370</t>
+          <t>1951439</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2019914</t>
+          <t>2017358</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>96,38%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2073755</t>
+          <t>2074617</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2130012</t>
+          <t>2130974</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2156,12 +2156,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2176,12 +2176,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>4041001</t>
+          <t>4043236</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>4130013</t>
+          <t>4133659</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2191,12 +2191,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>93,77%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>95,92%</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>51762</t>
+          <t>52601</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>99254</t>
+          <t>100706</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2234,12 +2234,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2254,12 +2254,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>60501</t>
+          <t>59506</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>104225</t>
+          <t>103558</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>123727</t>
+          <t>123077</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>194958</t>
+          <t>192831</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,47%</t>
         </is>
       </c>
     </row>
@@ -2332,12 +2332,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>19599</t>
+          <t>20479</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>50938</t>
+          <t>51594</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2347,12 +2347,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>22051</t>
+          <t>21705</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>45703</t>
+          <t>45859</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>47575</t>
+          <t>47776</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>87942</t>
+          <t>87712</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">

--- a/data/trans_orig/INDUSTRIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/INDUSTRIA-Estudios-trans_orig.xlsx
@@ -733,32 +733,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>206556</t>
+          <t>229023</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>197836</t>
+          <t>218589</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>213749</t>
+          <t>237448</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,46%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>87,6%</t>
+          <t>86,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>369588</t>
+          <t>402181</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>362213</t>
+          <t>393214</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>375622</t>
+          <t>408569</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>93,81%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>92,08%</t>
+          <t>91,72%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -803,32 +803,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>576144</t>
+          <t>631205</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>564958</t>
+          <t>618589</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>585812</t>
+          <t>642652</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>92,6%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>91,23%</t>
+          <t>90,75%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>94,28%</t>
         </is>
       </c>
     </row>
@@ -846,32 +846,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8499</t>
+          <t>11966</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4283</t>
+          <t>6624</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15162</t>
+          <t>20938</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -881,32 +881,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16224</t>
+          <t>18305</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11302</t>
+          <t>12938</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22536</t>
+          <t>25613</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>24723</t>
+          <t>30271</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>17314</t>
+          <t>21062</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>33620</t>
+          <t>40351</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,92%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10797</t>
+          <t>11930</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5723</t>
+          <t>6293</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18360</t>
+          <t>20034</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -994,32 +994,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7573</t>
+          <t>8246</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4147</t>
+          <t>4548</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12429</t>
+          <t>13769</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1029,32 +1029,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>18370</t>
+          <t>20175</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>11936</t>
+          <t>13019</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>27330</t>
+          <t>29821</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>4,37%</t>
         </is>
       </c>
     </row>
@@ -1072,17 +1072,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>225852</t>
+          <t>252919</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>225852</t>
+          <t>252919</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>225852</t>
+          <t>252919</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1107,17 +1107,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>393385</t>
+          <t>428732</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>393385</t>
+          <t>428732</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>393385</t>
+          <t>428732</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>619237</t>
+          <t>681651</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>619237</t>
+          <t>681651</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>619237</t>
+          <t>681651</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1189,32 +1189,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1342504</t>
+          <t>1213843</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1317613</t>
+          <t>1193521</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1371708</t>
+          <t>1230281</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1224,32 +1224,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1311035</t>
+          <t>1184086</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1287341</t>
+          <t>1164626</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1339562</t>
+          <t>1198925</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,89%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1259,32 +1259,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2653539</t>
+          <t>2397929</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2615001</t>
+          <t>2369136</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2694078</t>
+          <t>2424452</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>93,98%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,53%</t>
+          <t>95,02%</t>
         </is>
       </c>
     </row>
@@ -1302,32 +1302,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50754</t>
+          <t>57020</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27476</t>
+          <t>41845</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>71001</t>
+          <t>76029</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1337,32 +1337,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>50334</t>
+          <t>58733</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28635</t>
+          <t>45140</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>67401</t>
+          <t>75425</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1372,32 +1372,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>101089</t>
+          <t>115753</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>72399</t>
+          <t>94726</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131071</t>
+          <t>140973</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>5,52%</t>
         </is>
       </c>
     </row>
@@ -1415,27 +1415,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15131</t>
+          <t>15890</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6642</t>
+          <t>8183</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33170</t>
+          <t>30425</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1450,32 +1450,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21171</t>
+          <t>22003</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12063</t>
+          <t>14906</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>34422</t>
+          <t>34498</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1485,32 +1485,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>36302</t>
+          <t>37894</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>22423</t>
+          <t>25656</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>57654</t>
+          <t>55130</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,16%</t>
         </is>
       </c>
     </row>
@@ -1528,17 +1528,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1408389</t>
+          <t>1286753</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1408389</t>
+          <t>1286753</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1408389</t>
+          <t>1286753</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1563,17 +1563,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1382540</t>
+          <t>1264823</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1382540</t>
+          <t>1264823</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1382540</t>
+          <t>1264823</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1598,17 +1598,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>2790929</t>
+          <t>2551576</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>2790929</t>
+          <t>2551576</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>2790929</t>
+          <t>2551576</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1645,17 +1645,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>433474</t>
+          <t>480715</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>419355</t>
+          <t>465181</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>442207</t>
+          <t>489845</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1665,12 +1665,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>91,38%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>96,36%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1680,27 +1680,27 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>419046</t>
+          <t>467547</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>409769</t>
+          <t>457798</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>425387</t>
+          <t>474554</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>93,22%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
@@ -1715,17 +1715,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>852520</t>
+          <t>948263</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>836866</t>
+          <t>931904</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>863976</t>
+          <t>960324</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>96,03%</t>
         </is>
       </c>
     </row>
@@ -1758,32 +1758,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17424</t>
+          <t>18535</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10905</t>
+          <t>11720</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28508</t>
+          <t>30456</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1793,32 +1793,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17155</t>
+          <t>18847</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11129</t>
+          <t>12579</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25818</t>
+          <t>28551</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1828,32 +1828,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>34579</t>
+          <t>37382</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>24764</t>
+          <t>27081</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>47737</t>
+          <t>52070</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,21%</t>
         </is>
       </c>
     </row>
@@ -1871,32 +1871,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7992</t>
+          <t>9668</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3497</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18696</t>
+          <t>20820</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1906,32 +1906,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4027</t>
+          <t>4718</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1552</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>8360</t>
+          <t>9441</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1941,32 +1941,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>12019</t>
+          <t>14386</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>6809</t>
+          <t>8676</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>21182</t>
+          <t>25288</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,53%</t>
         </is>
       </c>
     </row>
@@ -1984,17 +1984,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>458890</t>
+          <t>508918</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>458890</t>
+          <t>508918</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>458890</t>
+          <t>508918</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2019,17 +2019,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>440228</t>
+          <t>491112</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>440228</t>
+          <t>491112</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>440228</t>
+          <t>491112</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2054,17 +2054,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>899118</t>
+          <t>1000031</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>899118</t>
+          <t>1000031</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>899118</t>
+          <t>1000031</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2101,32 +2101,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1982534</t>
+          <t>1923581</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1951439</t>
+          <t>1897279</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2017358</t>
+          <t>1944355</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>92,61%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>96,38%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2136,32 +2136,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2099668</t>
+          <t>2053815</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2074617</t>
+          <t>2030679</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2130974</t>
+          <t>2072367</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>94,86%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2171,32 +2171,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>4082202</t>
+          <t>3977396</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>4043236</t>
+          <t>3941981</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>4133659</t>
+          <t>4009254</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>93,12%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>94,71%</t>
         </is>
       </c>
     </row>
@@ -2214,102 +2214,102 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>76677</t>
+          <t>87520</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52601</t>
+          <t>68637</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>100706</t>
+          <t>109165</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>4,27%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5,33%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>95886</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>80141</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>114549</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4,39%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>5,24%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>183406</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>155093</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>211569</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>4,33%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
           <t>3,66%</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>2,51%</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>4,81%</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>83713</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>59506</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>103558</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>3,78%</t>
-        </is>
-      </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>2,69%</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>4,67%</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>160391</t>
-        </is>
-      </c>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>123077</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>192831</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="inlineStr">
-        <is>
-          <t>3,72%</t>
-        </is>
-      </c>
-      <c r="V17" s="2" t="inlineStr">
-        <is>
-          <t>2,86%</t>
-        </is>
-      </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>5,0%</t>
         </is>
       </c>
     </row>
@@ -2327,32 +2327,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>33920</t>
+          <t>37489</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20479</t>
+          <t>25515</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>51594</t>
+          <t>53939</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2362,32 +2362,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>32772</t>
+          <t>34966</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>21705</t>
+          <t>25681</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>45859</t>
+          <t>47643</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2397,32 +2397,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>66691</t>
+          <t>72455</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>47776</t>
+          <t>55446</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>87712</t>
+          <t>93959</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,22%</t>
         </is>
       </c>
     </row>
@@ -2440,17 +2440,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2093131</t>
+          <t>2048590</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2093131</t>
+          <t>2048590</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2093131</t>
+          <t>2048590</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2475,17 +2475,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2216153</t>
+          <t>2184667</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2216153</t>
+          <t>2184667</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2216153</t>
+          <t>2184667</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2510,17 +2510,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>4309284</t>
+          <t>4233257</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>4309284</t>
+          <t>4233257</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4309284</t>
+          <t>4233257</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
